--- a/XLSX transformados/Resumen_AL_Jugadores.xlsx
+++ b/XLSX transformados/Resumen_AL_Jugadores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV101"/>
+  <dimension ref="A1:AY121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,6 +674,21 @@
           <t>Bloqueos de Jugadores de Campo</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>totalKeeperSweeper</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>accurateKeeperSweeper</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>goodHighClaim</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -803,11 +818,7 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -820,6 +831,9 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -949,11 +963,7 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -966,6 +976,9 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1095,11 +1108,7 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1112,6 +1121,9 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1241,11 +1253,7 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1258,6 +1266,9 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1387,11 +1398,7 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1404,6 +1411,9 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1533,11 +1543,7 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1550,6 +1556,9 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1679,11 +1688,7 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1696,6 +1701,9 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1825,11 +1833,7 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1842,6 +1846,9 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1971,11 +1978,7 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -1988,6 +1991,9 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2117,11 +2123,7 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2134,6 +2136,9 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2263,11 +2268,7 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2280,6 +2281,9 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2307,7 +2311,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2409,11 +2413,7 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2426,6 +2426,9 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2453,7 +2456,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2555,11 +2558,7 @@
       <c r="AM14" t="n">
         <v>1</v>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2572,6 +2571,9 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2599,7 +2601,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2701,11 +2703,7 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2718,6 +2716,9 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2745,7 +2746,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2847,11 +2848,7 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -2864,6 +2861,9 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2993,11 +2993,7 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -3010,6 +3006,9 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3037,7 +3036,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3139,11 +3138,7 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -3156,6 +3151,9 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3183,7 +3181,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3285,11 +3283,7 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -3302,6 +3296,9 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3329,7 +3326,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -3431,11 +3428,7 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -3448,6 +3441,9 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3475,7 +3471,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -3577,11 +3573,7 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
           <t>Jornada 1 - Local vs Universidad Cesar Vallejo</t>
@@ -3594,6 +3586,9 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3719,11 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -3744,6 +3735,9 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3869,11 +3863,7 @@
         <v>0</v>
       </c>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -3894,6 +3884,9 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4019,11 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4044,6 +4033,9 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4169,11 +4161,7 @@
         <v>0</v>
       </c>
       <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4194,6 +4182,9 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4319,11 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4344,6 +4331,9 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4469,11 +4459,7 @@
         <v>0</v>
       </c>
       <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4494,6 +4480,9 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4619,11 +4608,7 @@
         <v>1</v>
       </c>
       <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4644,6 +4629,9 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4769,11 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4794,6 +4778,9 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4919,11 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -4944,6 +4927,9 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5069,11 +5055,7 @@
         <v>1</v>
       </c>
       <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5094,6 +5076,9 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5219,11 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5244,6 +5225,9 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5271,7 +5255,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -5369,11 +5353,7 @@
         <v>0</v>
       </c>
       <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5394,6 +5374,9 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5421,7 +5404,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -5519,11 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5544,6 +5523,9 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5571,7 +5553,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -5669,11 +5651,7 @@
         <v>0</v>
       </c>
       <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5694,6 +5672,9 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5721,7 +5702,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -5819,11 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5844,6 +5821,9 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5871,7 +5851,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -5969,11 +5949,7 @@
         <v>0</v>
       </c>
       <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -5994,6 +5970,9 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6021,7 +6000,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -6119,11 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -6144,6 +6119,9 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6171,7 +6149,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -6269,11 +6247,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -6294,6 +6268,9 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6321,7 +6298,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -6419,11 +6396,7 @@
         <v>0</v>
       </c>
       <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -6444,6 +6417,9 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6471,7 +6447,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -6569,11 +6545,7 @@
         <v>0</v>
       </c>
       <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr">
         <is>
           <t>Jornada 2 - Visita vs Alianza Atlético de Sullana</t>
@@ -6594,6 +6566,9 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6705,7 +6680,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
-      <c r="AH42" t="inlineStr"/>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
       <c r="AI42" t="n">
         <v>0</v>
       </c>
@@ -6715,15 +6692,13 @@
       <c r="AK42" t="n">
         <v>0</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
       <c r="AM42" t="n">
         <v>0</v>
       </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -6742,6 +6717,9 @@
       </c>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6853,7 +6831,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
-      <c r="AH43" t="inlineStr"/>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
       <c r="AI43" t="n">
         <v>0</v>
       </c>
@@ -6863,15 +6843,13 @@
       <c r="AK43" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
-      <c r="AN43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -6890,6 +6868,9 @@
       </c>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7001,7 +6982,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
-      <c r="AH44" t="inlineStr"/>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
@@ -7011,15 +6994,13 @@
       <c r="AK44" t="n">
         <v>0</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
       <c r="AM44" t="n">
         <v>0</v>
       </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7038,6 +7019,9 @@
       </c>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7149,7 +7133,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
-      <c r="AH45" t="inlineStr"/>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
       <c r="AI45" t="n">
         <v>0</v>
       </c>
@@ -7159,15 +7145,13 @@
       <c r="AK45" t="n">
         <v>0</v>
       </c>
-      <c r="AL45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
-      <c r="AN45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7186,6 +7170,9 @@
       </c>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7297,7 +7284,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
-      <c r="AH46" t="inlineStr"/>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
       <c r="AI46" t="n">
         <v>0</v>
       </c>
@@ -7307,15 +7296,13 @@
       <c r="AK46" t="n">
         <v>1</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
       <c r="AM46" t="n">
         <v>0</v>
       </c>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7334,6 +7321,9 @@
       </c>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7445,7 +7435,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
-      <c r="AH47" t="inlineStr"/>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
       <c r="AI47" t="n">
         <v>0</v>
       </c>
@@ -7455,15 +7447,13 @@
       <c r="AK47" t="n">
         <v>0</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7482,6 +7472,9 @@
       </c>
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7593,7 +7586,9 @@
       <c r="AG48" t="n">
         <v>2</v>
       </c>
-      <c r="AH48" t="inlineStr"/>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
@@ -7603,15 +7598,13 @@
       <c r="AK48" t="n">
         <v>0</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
       <c r="AM48" t="n">
         <v>0</v>
       </c>
-      <c r="AN48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7630,6 +7623,9 @@
       </c>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7741,7 +7737,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
-      <c r="AH49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
       <c r="AI49" t="n">
         <v>0</v>
       </c>
@@ -7751,15 +7749,13 @@
       <c r="AK49" t="n">
         <v>0</v>
       </c>
-      <c r="AL49" t="inlineStr"/>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
       <c r="AM49" t="n">
         <v>1</v>
       </c>
-      <c r="AN49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7778,6 +7774,9 @@
       </c>
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7889,7 +7888,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
-      <c r="AH50" t="inlineStr"/>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
       <c r="AI50" t="n">
         <v>0</v>
       </c>
@@ -7899,15 +7900,13 @@
       <c r="AK50" t="n">
         <v>0</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
       <c r="AM50" t="n">
         <v>0</v>
       </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -7926,6 +7925,9 @@
       </c>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8037,7 +8039,9 @@
       <c r="AG51" t="n">
         <v>1</v>
       </c>
-      <c r="AH51" t="inlineStr"/>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
       <c r="AI51" t="n">
         <v>1</v>
       </c>
@@ -8047,15 +8051,13 @@
       <c r="AK51" t="n">
         <v>0</v>
       </c>
-      <c r="AL51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
-      <c r="AN51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8074,6 +8076,9 @@
       </c>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8185,7 +8190,9 @@
       <c r="AG52" t="n">
         <v>2</v>
       </c>
-      <c r="AH52" t="inlineStr"/>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
       <c r="AI52" t="n">
         <v>1</v>
       </c>
@@ -8195,15 +8202,13 @@
       <c r="AK52" t="n">
         <v>0</v>
       </c>
-      <c r="AL52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
       <c r="AM52" t="n">
         <v>0</v>
       </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8222,6 +8227,9 @@
       </c>
       <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8249,7 +8257,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -8333,7 +8341,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
-      <c r="AH53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
       <c r="AI53" t="n">
         <v>0</v>
       </c>
@@ -8343,15 +8353,13 @@
       <c r="AK53" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
       <c r="AM53" t="n">
         <v>0</v>
       </c>
-      <c r="AN53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8370,6 +8378,9 @@
       </c>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8397,7 +8408,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -8481,7 +8492,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
-      <c r="AH54" t="inlineStr"/>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
       <c r="AI54" t="n">
         <v>0</v>
       </c>
@@ -8491,15 +8504,13 @@
       <c r="AK54" t="n">
         <v>0</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
       <c r="AM54" t="n">
         <v>0</v>
       </c>
-      <c r="AN54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8518,6 +8529,9 @@
       </c>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8545,7 +8559,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -8629,7 +8643,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
-      <c r="AH55" t="inlineStr"/>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
       <c r="AI55" t="n">
         <v>0</v>
       </c>
@@ -8639,15 +8655,13 @@
       <c r="AK55" t="n">
         <v>0</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
       <c r="AM55" t="n">
         <v>0</v>
       </c>
-      <c r="AN55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8666,6 +8680,9 @@
       </c>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8693,7 +8710,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -8777,7 +8794,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
-      <c r="AH56" t="inlineStr"/>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
       <c r="AI56" t="n">
         <v>0</v>
       </c>
@@ -8787,15 +8806,13 @@
       <c r="AK56" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
       <c r="AM56" t="n">
         <v>0</v>
       </c>
-      <c r="AN56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8814,6 +8831,9 @@
       </c>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8841,7 +8861,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -8925,7 +8945,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
-      <c r="AH57" t="inlineStr"/>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
       <c r="AI57" t="n">
         <v>0</v>
       </c>
@@ -8935,15 +8957,13 @@
       <c r="AK57" t="n">
         <v>0</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
-      <c r="AN57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -8962,6 +8982,9 @@
       </c>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8989,7 +9012,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -9073,7 +9096,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
-      <c r="AH58" t="inlineStr"/>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
       <c r="AI58" t="n">
         <v>0</v>
       </c>
@@ -9083,15 +9108,13 @@
       <c r="AK58" t="n">
         <v>0</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
       <c r="AM58" t="n">
         <v>0</v>
       </c>
-      <c r="AN58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -9110,6 +9133,9 @@
       </c>
       <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9137,7 +9163,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -9221,7 +9247,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
-      <c r="AH59" t="inlineStr"/>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
       <c r="AI59" t="n">
         <v>0</v>
       </c>
@@ -9231,15 +9259,13 @@
       <c r="AK59" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
       <c r="AM59" t="n">
         <v>0</v>
       </c>
-      <c r="AN59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -9258,6 +9284,9 @@
       </c>
       <c r="AU59" t="inlineStr"/>
       <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9285,7 +9314,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -9369,7 +9398,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
-      <c r="AH60" t="inlineStr"/>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
@@ -9379,15 +9410,13 @@
       <c r="AK60" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
       <c r="AM60" t="n">
         <v>0</v>
       </c>
-      <c r="AN60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -9406,6 +9435,9 @@
       </c>
       <c r="AU60" t="inlineStr"/>
       <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9433,7 +9465,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -9517,7 +9549,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
-      <c r="AH61" t="inlineStr"/>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
       <c r="AI61" t="n">
         <v>0</v>
       </c>
@@ -9527,15 +9561,13 @@
       <c r="AK61" t="n">
         <v>0</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>0</v>
+      </c>
       <c r="AM61" t="n">
         <v>0</v>
       </c>
-      <c r="AN61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr">
         <is>
           <t>Jornada 3 - Local vs Universitario de Deportes</t>
@@ -9554,6 +9586,9 @@
       </c>
       <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9681,11 +9716,7 @@
         <v>0</v>
       </c>
       <c r="AM62" t="inlineStr"/>
-      <c r="AN62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -9706,6 +9737,9 @@
       <c r="AV62" t="n">
         <v>0</v>
       </c>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9833,11 +9867,7 @@
         <v>0</v>
       </c>
       <c r="AM63" t="inlineStr"/>
-      <c r="AN63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -9858,6 +9888,9 @@
       <c r="AV63" t="n">
         <v>1</v>
       </c>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9985,11 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AM64" t="inlineStr"/>
-      <c r="AN64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10010,6 +10039,9 @@
       <c r="AV64" t="n">
         <v>1</v>
       </c>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10137,11 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AM65" t="inlineStr"/>
-      <c r="AN65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10162,6 +10190,9 @@
       <c r="AV65" t="n">
         <v>1</v>
       </c>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10289,11 +10320,7 @@
         <v>0</v>
       </c>
       <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10314,6 +10341,9 @@
       <c r="AV66" t="n">
         <v>0</v>
       </c>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10441,11 +10471,7 @@
         <v>0</v>
       </c>
       <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10466,6 +10492,9 @@
       <c r="AV67" t="n">
         <v>0</v>
       </c>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10593,11 +10622,7 @@
         <v>0</v>
       </c>
       <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10618,6 +10643,9 @@
       <c r="AV68" t="n">
         <v>0</v>
       </c>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10745,11 +10773,7 @@
         <v>0</v>
       </c>
       <c r="AM69" t="inlineStr"/>
-      <c r="AN69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10770,6 +10794,9 @@
       <c r="AV69" t="n">
         <v>0</v>
       </c>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10897,11 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AM70" t="inlineStr"/>
-      <c r="AN70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -10922,6 +10945,9 @@
       <c r="AV70" t="n">
         <v>1</v>
       </c>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11049,11 +11075,7 @@
         <v>1</v>
       </c>
       <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11074,6 +11096,9 @@
       <c r="AV71" t="n">
         <v>0</v>
       </c>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11201,11 +11226,7 @@
         <v>1</v>
       </c>
       <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11226,6 +11247,9 @@
       <c r="AV72" t="n">
         <v>0</v>
       </c>
+      <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11253,7 +11277,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -11353,11 +11377,7 @@
         <v>0</v>
       </c>
       <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11378,6 +11398,9 @@
       <c r="AV73" t="n">
         <v>0</v>
       </c>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11405,7 +11428,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -11505,11 +11528,7 @@
         <v>0</v>
       </c>
       <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11530,6 +11549,9 @@
       <c r="AV74" t="n">
         <v>0</v>
       </c>
+      <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr"/>
+      <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11557,7 +11579,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -11657,11 +11679,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11682,6 +11700,9 @@
       <c r="AV75" t="n">
         <v>0</v>
       </c>
+      <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11709,7 +11730,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -11809,11 +11830,7 @@
         <v>0</v>
       </c>
       <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11834,6 +11851,9 @@
       <c r="AV76" t="n">
         <v>0</v>
       </c>
+      <c r="AW76" t="inlineStr"/>
+      <c r="AX76" t="inlineStr"/>
+      <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11861,7 +11881,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -11961,11 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -11986,6 +12002,9 @@
       <c r="AV77" t="n">
         <v>0</v>
       </c>
+      <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12013,7 +12032,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -12113,11 +12132,7 @@
         <v>0</v>
       </c>
       <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -12138,6 +12153,9 @@
       <c r="AV78" t="n">
         <v>0</v>
       </c>
+      <c r="AW78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12165,7 +12183,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -12265,11 +12283,7 @@
         <v>0</v>
       </c>
       <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -12290,6 +12304,9 @@
       <c r="AV79" t="n">
         <v>0</v>
       </c>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12317,7 +12334,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -12417,11 +12434,7 @@
         <v>0</v>
       </c>
       <c r="AM80" t="inlineStr"/>
-      <c r="AN80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -12442,6 +12455,9 @@
       <c r="AV80" t="n">
         <v>0</v>
       </c>
+      <c r="AW80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12469,7 +12485,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -12569,11 +12585,7 @@
         <v>0</v>
       </c>
       <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr">
         <is>
           <t>Jornada 4 - Visita vs Unión Comercio</t>
@@ -12594,6 +12606,9 @@
       <c r="AV81" t="n">
         <v>0</v>
       </c>
+      <c r="AW81" t="inlineStr"/>
+      <c r="AX81" t="inlineStr"/>
+      <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12721,11 +12736,7 @@
       <c r="AM82" t="n">
         <v>0</v>
       </c>
-      <c r="AN82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -12744,6 +12755,9 @@
       <c r="AV82" t="n">
         <v>0</v>
       </c>
+      <c r="AW82" t="inlineStr"/>
+      <c r="AX82" t="inlineStr"/>
+      <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12871,11 +12885,7 @@
       <c r="AM83" t="n">
         <v>0</v>
       </c>
-      <c r="AN83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -12894,6 +12904,9 @@
       <c r="AV83" t="n">
         <v>0</v>
       </c>
+      <c r="AW83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13021,11 +13034,7 @@
       <c r="AM84" t="n">
         <v>0</v>
       </c>
-      <c r="AN84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13044,6 +13053,9 @@
       <c r="AV84" t="n">
         <v>0</v>
       </c>
+      <c r="AW84" t="inlineStr"/>
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13171,11 +13183,7 @@
       <c r="AM85" t="n">
         <v>0</v>
       </c>
-      <c r="AN85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13194,6 +13202,9 @@
       <c r="AV85" t="n">
         <v>0</v>
       </c>
+      <c r="AW85" t="inlineStr"/>
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13321,11 +13332,7 @@
       <c r="AM86" t="n">
         <v>0</v>
       </c>
-      <c r="AN86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13344,6 +13351,9 @@
       <c r="AV86" t="n">
         <v>0</v>
       </c>
+      <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="inlineStr"/>
+      <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13471,11 +13481,7 @@
       <c r="AM87" t="n">
         <v>0</v>
       </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13494,6 +13500,9 @@
       <c r="AV87" t="n">
         <v>0</v>
       </c>
+      <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13621,11 +13630,7 @@
       <c r="AM88" t="n">
         <v>0</v>
       </c>
-      <c r="AN88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13644,6 +13649,9 @@
       <c r="AV88" t="n">
         <v>0</v>
       </c>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13771,11 +13779,7 @@
       <c r="AM89" t="n">
         <v>0</v>
       </c>
-      <c r="AN89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13794,6 +13798,9 @@
       <c r="AV89" t="n">
         <v>0</v>
       </c>
+      <c r="AW89" t="inlineStr"/>
+      <c r="AX89" t="inlineStr"/>
+      <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13921,11 +13928,7 @@
       <c r="AM90" t="n">
         <v>0</v>
       </c>
-      <c r="AN90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -13944,6 +13947,9 @@
       <c r="AV90" t="n">
         <v>0</v>
       </c>
+      <c r="AW90" t="inlineStr"/>
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14071,11 +14077,7 @@
       <c r="AM91" t="n">
         <v>0</v>
       </c>
-      <c r="AN91" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14094,6 +14096,9 @@
       <c r="AV91" t="n">
         <v>0</v>
       </c>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14221,11 +14226,7 @@
       <c r="AM92" t="n">
         <v>1</v>
       </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14244,6 +14245,9 @@
       <c r="AV92" t="n">
         <v>0</v>
       </c>
+      <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="inlineStr"/>
+      <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14271,7 +14275,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -14371,11 +14375,7 @@
       <c r="AM93" t="n">
         <v>0</v>
       </c>
-      <c r="AN93" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14394,6 +14394,9 @@
       <c r="AV93" t="n">
         <v>0</v>
       </c>
+      <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr"/>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14421,7 +14424,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -14521,11 +14524,7 @@
       <c r="AM94" t="n">
         <v>0</v>
       </c>
-      <c r="AN94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14544,6 +14543,9 @@
       <c r="AV94" t="n">
         <v>0</v>
       </c>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14571,7 +14573,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -14671,11 +14673,7 @@
       <c r="AM95" t="n">
         <v>0</v>
       </c>
-      <c r="AN95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14694,6 +14692,9 @@
       <c r="AV95" t="n">
         <v>1</v>
       </c>
+      <c r="AW95" t="inlineStr"/>
+      <c r="AX95" t="inlineStr"/>
+      <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14721,7 +14722,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -14821,11 +14822,7 @@
       <c r="AM96" t="n">
         <v>0</v>
       </c>
-      <c r="AN96" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14844,6 +14841,9 @@
       <c r="AV96" t="n">
         <v>0</v>
       </c>
+      <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="inlineStr"/>
+      <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -14971,11 +14971,7 @@
       <c r="AM97" t="n">
         <v>0</v>
       </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -14994,6 +14990,9 @@
       <c r="AV97" t="n">
         <v>0</v>
       </c>
+      <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr"/>
+      <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15021,7 +15020,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -15121,11 +15120,7 @@
       <c r="AM98" t="n">
         <v>0</v>
       </c>
-      <c r="AN98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -15144,6 +15139,9 @@
       <c r="AV98" t="n">
         <v>0</v>
       </c>
+      <c r="AW98" t="inlineStr"/>
+      <c r="AX98" t="inlineStr"/>
+      <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15171,7 +15169,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -15271,11 +15269,7 @@
       <c r="AM99" t="n">
         <v>0</v>
       </c>
-      <c r="AN99" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -15294,6 +15288,9 @@
       <c r="AV99" t="n">
         <v>0</v>
       </c>
+      <c r="AW99" t="inlineStr"/>
+      <c r="AX99" t="inlineStr"/>
+      <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15321,7 +15318,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -15421,11 +15418,7 @@
       <c r="AM100" t="n">
         <v>0</v>
       </c>
-      <c r="AN100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -15444,6 +15437,9 @@
       <c r="AV100" t="n">
         <v>0</v>
       </c>
+      <c r="AW100" t="inlineStr"/>
+      <c r="AX100" t="inlineStr"/>
+      <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15471,7 +15467,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -15571,11 +15567,7 @@
       <c r="AM101" t="n">
         <v>0</v>
       </c>
-      <c r="AN101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr">
         <is>
           <t>Jornada 5 - Local vs Comerciantes Unidos</t>
@@ -15594,6 +15586,3029 @@
       <c r="AV101" t="n">
         <v>0</v>
       </c>
+      <c r="AW101" t="inlineStr"/>
+      <c r="AX101" t="inlineStr"/>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Franco Saravia</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>F. Saravia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>32</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>9</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>6</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="inlineStr"/>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AU102" t="inlineStr"/>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jiovany Ramos</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>J. Ramos</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>29</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>22</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>90</v>
+      </c>
+      <c r="L103" t="n">
+        <v>36</v>
+      </c>
+      <c r="M103" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>11</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="inlineStr"/>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AU103" t="inlineStr"/>
+      <c r="AV103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Renzo Garces</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>R. Garces</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>13</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>90</v>
+      </c>
+      <c r="L104" t="n">
+        <v>22</v>
+      </c>
+      <c r="M104" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR104" t="inlineStr"/>
+      <c r="AS104" t="inlineStr"/>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AU104" t="inlineStr"/>
+      <c r="AV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Juan Freytes</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>J. Freytes</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>31</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+      <c r="I105" t="n">
+        <v>16</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>90</v>
+      </c>
+      <c r="L105" t="n">
+        <v>52</v>
+      </c>
+      <c r="M105" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>31</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="inlineStr"/>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AU105" t="inlineStr"/>
+      <c r="AV105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Kevin Serna</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>K. Serna</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>26</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>19</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>90</v>
+      </c>
+      <c r="L106" t="n">
+        <v>34</v>
+      </c>
+      <c r="M106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N106" t="n">
+        <v>16</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR106" t="inlineStr"/>
+      <c r="AS106" t="inlineStr"/>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AU106" t="inlineStr"/>
+      <c r="AV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Gabriel Costa</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>G. Costa</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>10</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>30</v>
+      </c>
+      <c r="L107" t="n">
+        <v>11</v>
+      </c>
+      <c r="M107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" t="inlineStr"/>
+      <c r="AS107" t="inlineStr"/>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AU107" t="inlineStr"/>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Adrián Arregui</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>A. Arregui</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" t="n">
+        <v>14</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>90</v>
+      </c>
+      <c r="L108" t="n">
+        <v>37</v>
+      </c>
+      <c r="M108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>15</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="n">
+        <v>7</v>
+      </c>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR108" t="inlineStr"/>
+      <c r="AS108" t="inlineStr"/>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AU108" t="inlineStr"/>
+      <c r="AV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sebastián Rodríguez</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>S. Rodríguez</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>22</v>
+      </c>
+      <c r="H109" t="n">
+        <v>15</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>90</v>
+      </c>
+      <c r="L109" t="n">
+        <v>37</v>
+      </c>
+      <c r="M109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>14</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>2</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="inlineStr"/>
+      <c r="AS109" t="inlineStr"/>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AU109" t="inlineStr"/>
+      <c r="AV109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jhamir D´Arrigo</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>J. D´Arrigo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>11</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>19</v>
+      </c>
+      <c r="H110" t="n">
+        <v>13</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>69</v>
+      </c>
+      <c r="L110" t="n">
+        <v>27</v>
+      </c>
+      <c r="M110" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR110" t="inlineStr"/>
+      <c r="AS110" t="inlineStr"/>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AU110" t="inlineStr"/>
+      <c r="AV110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Cecilio Waterman</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C. Waterman</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>30</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>11</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>85</v>
+      </c>
+      <c r="L111" t="n">
+        <v>28</v>
+      </c>
+      <c r="M111" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N111" t="n">
+        <v>10</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="n">
+        <v>6</v>
+      </c>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR111" t="inlineStr"/>
+      <c r="AS111" t="inlineStr"/>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AU111" t="inlineStr"/>
+      <c r="AV111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hernán Barcos</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>H. Barcos</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>9</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>16</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>45</v>
+      </c>
+      <c r="L112" t="n">
+        <v>23</v>
+      </c>
+      <c r="M112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR112" t="inlineStr"/>
+      <c r="AS112" t="inlineStr"/>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AU112" t="inlineStr"/>
+      <c r="AV112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ángel De la Cruz</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Á. D. l. Cruz</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>12</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>26</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6</v>
+      </c>
+      <c r="K113" t="n">
+        <v>60</v>
+      </c>
+      <c r="L113" t="n">
+        <v>33</v>
+      </c>
+      <c r="M113" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N113" t="n">
+        <v>18</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR113" t="inlineStr"/>
+      <c r="AS113" t="inlineStr"/>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AU113" t="inlineStr"/>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jesús Castillo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>J. Castillo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>15</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>45</v>
+      </c>
+      <c r="L114" t="n">
+        <v>17</v>
+      </c>
+      <c r="M114" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR114" t="inlineStr"/>
+      <c r="AS114" t="inlineStr"/>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AU114" t="inlineStr"/>
+      <c r="AV114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Franco Zanelatto</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>F. Zanelatto</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>7</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>21</v>
+      </c>
+      <c r="L115" t="n">
+        <v>7</v>
+      </c>
+      <c r="M115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR115" t="inlineStr"/>
+      <c r="AS115" t="inlineStr"/>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AU115" t="inlineStr"/>
+      <c r="AV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Víctor Guzmán</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>V. Guzmán</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>22</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>9</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR116" t="inlineStr"/>
+      <c r="AS116" t="inlineStr"/>
+      <c r="AT116" t="inlineStr"/>
+      <c r="AU116" t="inlineStr"/>
+      <c r="AV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Marco Huaman</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>M. Huaman</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>25</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR117" t="inlineStr"/>
+      <c r="AS117" t="inlineStr"/>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AU117" t="inlineStr"/>
+      <c r="AV117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sebastian Aranda</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>S. Aranda</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>21</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR118" t="inlineStr"/>
+      <c r="AS118" t="inlineStr"/>
+      <c r="AT118" t="inlineStr"/>
+      <c r="AU118" t="inlineStr"/>
+      <c r="AV118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Axel Moyano</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>A. Moyano</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>14</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR119" t="inlineStr"/>
+      <c r="AS119" t="inlineStr"/>
+      <c r="AT119" t="inlineStr"/>
+      <c r="AU119" t="inlineStr"/>
+      <c r="AV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Aldair Fuentes</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>A. Fuentes</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR120" t="inlineStr"/>
+      <c r="AS120" t="inlineStr"/>
+      <c r="AT120" t="inlineStr"/>
+      <c r="AU120" t="inlineStr"/>
+      <c r="AV120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Catriel Cabellos</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C. Cabellos</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>27</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>Jornada 6 - Visita vs ADT</t>
+        </is>
+      </c>
+      <c r="AP121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" t="inlineStr"/>
+      <c r="AS121" t="inlineStr"/>
+      <c r="AT121" t="inlineStr"/>
+      <c r="AU121" t="inlineStr"/>
+      <c r="AV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
